--- a/Algoritmia/tables/lab1/tableVector.xlsx
+++ b/Algoritmia/tables/lab1/tableVector.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uo244965\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carla\Documents\Git\University\Algoritmia\tables\lab1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,29 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>n</t>
   </si>
   <si>
-    <t>sum(t) (micro)</t>
+    <t>fillIn (micros)</t>
   </si>
   <si>
-    <t>fillIn(t) (ms)</t>
+    <t>sum (micros)</t>
   </si>
   <si>
-    <t>maximum(t) (micro)</t>
+    <t>maximum (micros)</t>
+  </si>
+  <si>
+    <t>theoretical values</t>
+  </si>
+  <si>
+    <t>fillIn (theor)</t>
+  </si>
+  <si>
+    <t>sum (theor)</t>
+  </si>
+  <si>
+    <t>maximum (theor)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,6 +72,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -70,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,22 +96,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -116,7 +155,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -127,63 +166,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>fillIn</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -192,6 +175,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fillIn (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -262,40 +256,288 @@
             <c:numRef>
               <c:f>Sheet1!$C$4:$C$14</c:f>
               <c:numCache>
-                <c:formatCode>0.000000</c:formatCode>
+                <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>3.1E-4</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1000000000000001E-3</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5199999999999997E-3</c:v>
+                  <c:v>4.5199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2460000000000001E-2</c:v>
+                  <c:v>22.46</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>680.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3061.3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>14040</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>78160</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>408890</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>2205570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1186</c:v>
+                  <c:v>6250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68079999999999996</c:v>
+                  <c:v>31250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.0613000000000001</c:v>
+                  <c:v>156250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14.04</c:v>
+                  <c:v>781250</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>78.16</c:v>
+                  <c:v>3906250</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>408.89</c:v>
+                  <c:v>19531250</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2205.5700000000002</c:v>
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>26.98</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>137.13</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>811.05</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>17223</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>78000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maximum (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>88.46</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>759.63</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>106100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -310,11 +552,514 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320984632"/>
-        <c:axId val="321048088"/>
+        <c:axId val="1840552496"/>
+        <c:axId val="1840555216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320984632"/>
+        <c:axId val="1840552496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1840555216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1840555216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1840552496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1100"/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>fillIn </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fillIn (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22.46</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>118.6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>680.8</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>3061.3</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0">
+                  <c:v>14040</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>78160</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>408890</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>2205570</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fillIn (theor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$19:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.31</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>193.75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>968.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4843.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24218.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>121093.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>605468.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3027343.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1840560112"/>
+        <c:axId val="1840557392"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1840560112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -368,15 +1113,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="321048088"/>
+        <c:crossAx val="1840557392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="321048088"/>
+        <c:axId val="1840557392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -396,7 +1141,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.000000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -430,10 +1175,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320984632"/>
+        <c:crossAx val="1840560112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -445,6 +1190,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -471,7 +1248,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -482,10 +1259,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -516,7 +1293,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="es-ES"/>
               <a:t>sum</a:t>
             </a:r>
           </a:p>
@@ -548,7 +1325,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -559,8 +1336,143 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6.1999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4299999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20910000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>26.98</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>137.13</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>811.05</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>3450</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>17223</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>78000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sum (theor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -587,7 +1499,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$B$19:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -629,42 +1541,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$14</c:f>
+              <c:f>Sheet1!$D$19:$D$29</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>6.1999999999999998E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.4299999999999997E-2</c:v>
+                  <c:v>3.1E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20910000000000001</c:v>
+                  <c:v>0.155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94</c:v>
+                  <c:v>0.77500000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.46</c:v>
+                  <c:v>3.875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.98</c:v>
+                  <c:v>19.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>137.13</c:v>
+                  <c:v>96.875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>811.05</c:v>
+                  <c:v>484.375</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3450</c:v>
+                  <c:v>2421.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17223</c:v>
+                  <c:v>12109.375</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>78000</c:v>
+                  <c:v>60546.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,11 +1591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="324755808"/>
-        <c:axId val="324756592"/>
+        <c:axId val="1840563376"/>
+        <c:axId val="1840549776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="324755808"/>
+        <c:axId val="1840563376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -737,15 +1649,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324756592"/>
+        <c:crossAx val="1840549776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="324756592"/>
+        <c:axId val="1840549776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -799,10 +1711,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="324755808"/>
+        <c:crossAx val="1840563376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -814,6 +1726,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -840,7 +1784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -851,10 +1795,10 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -885,7 +1829,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="es-ES"/>
               <a:t>maximum</a:t>
             </a:r>
           </a:p>
@@ -917,7 +1861,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -928,8 +1872,143 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maximum (micros)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6250</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>156250</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>781250</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3906250</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19531250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>97656250</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.2800000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.1638</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.7349</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="0.00">
+                  <c:v>3.43</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="0.00">
+                  <c:v>18.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.00">
+                  <c:v>88.46</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="0.00">
+                  <c:v>759.63</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="0">
+                  <c:v>3916</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>20200</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0">
+                  <c:v>106100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>maximum (theor)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -956,7 +2035,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$14</c:f>
+              <c:f>Sheet1!$B$19:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
@@ -998,42 +2077,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$14</c:f>
+              <c:f>Sheet1!$E$19:$E$29</c:f>
               <c:numCache>
-                <c:formatCode>0.0000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>1.24E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2800000000000003E-2</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1638</c:v>
+                  <c:v>0.31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7349</c:v>
+                  <c:v>1.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.43</c:v>
+                  <c:v>7.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>18.100000000000001</c:v>
+                  <c:v>38.75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.46</c:v>
+                  <c:v>193.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>759.63</c:v>
+                  <c:v>968.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3916</c:v>
+                  <c:v>4843.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20200</c:v>
+                  <c:v>24218.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>106100</c:v>
+                  <c:v>121093.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1048,11 +2127,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329938584"/>
-        <c:axId val="329938192"/>
+        <c:axId val="1840555760"/>
+        <c:axId val="1840557936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329938584"/>
+        <c:axId val="1840555760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1106,15 +2185,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329938192"/>
+        <c:crossAx val="1840557936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329938192"/>
+        <c:axId val="1840557936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,10 +2247,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329938584"/>
+        <c:crossAx val="1840555760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1183,6 +2262,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1209,7 +2320,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-ES"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1340,6 +2451,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2888,24 +4039,540 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2922,20 +4589,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>847725</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>90487</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2952,20 +4619,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>386443</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>15647</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563476</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>205961</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>81643</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>158522</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398317</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>128130</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2980,11 +4647,41 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1005981</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>176337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>145572</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3249,15 +4946,15 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <selection activeCell="B18" sqref="B18:E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -3282,18 +4979,18 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1"/>
@@ -3301,19 +4998,19 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>10</v>
       </c>
-      <c r="C4" s="4">
-        <f>31/100000</f>
-        <v>3.1E-4</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C4" s="5">
+        <f>31/100</f>
+        <v>0.31</v>
+      </c>
+      <c r="D4" s="5">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <f>124/10000</f>
         <v>1.24E-2</v>
       </c>
@@ -3322,19 +5019,19 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <v>50</v>
       </c>
-      <c r="C5" s="4">
-        <f>110/100000</f>
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="C5" s="5">
+        <f>110/100</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D5" s="5">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <f>328/10000</f>
         <v>3.2800000000000003E-2</v>
       </c>
@@ -3343,19 +5040,19 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <v>250</v>
       </c>
-      <c r="C6" s="4">
-        <f>452/100000</f>
-        <v>4.5199999999999997E-3</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="5">
+        <f>452/100</f>
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="D6" s="5">
         <v>0.20910000000000001</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="5">
         <f>1638/10000</f>
         <v>0.1638</v>
       </c>
@@ -3364,19 +5061,19 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <v>1250</v>
       </c>
-      <c r="C7" s="4">
-        <f>2246/100000</f>
-        <v>2.2460000000000001E-2</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="C7" s="5">
+        <f>2246/100</f>
+        <v>22.46</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.94</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="5">
         <f>7349/10000</f>
         <v>0.7349</v>
       </c>
@@ -3385,19 +5082,19 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <v>6250</v>
       </c>
-      <c r="C8" s="4">
-        <f>11860/100000</f>
-        <v>0.1186</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="6">
+        <f>11860/100</f>
+        <v>118.6</v>
+      </c>
+      <c r="D8" s="6">
         <v>5.46</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="6">
         <f>343/100</f>
         <v>3.43</v>
       </c>
@@ -3406,19 +5103,19 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <v>31250</v>
       </c>
-      <c r="C9" s="4">
-        <f>68080/100000</f>
-        <v>0.68079999999999996</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="C9" s="6">
+        <f>68080/100</f>
+        <v>680.8</v>
+      </c>
+      <c r="D9" s="6">
         <v>26.98</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="6">
         <f>1810/100</f>
         <v>18.100000000000001</v>
       </c>
@@ -3427,19 +5124,19 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3">
+      <c r="B10" s="4">
         <v>156250</v>
       </c>
-      <c r="C10" s="4">
-        <f>30613/10000</f>
-        <v>3.0613000000000001</v>
-      </c>
-      <c r="D10" s="2">
+      <c r="C10" s="6">
+        <f>30613/10</f>
+        <v>3061.3</v>
+      </c>
+      <c r="D10" s="6">
         <v>137.13</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="6">
         <f>8846/100</f>
         <v>88.46</v>
       </c>
@@ -3448,19 +5145,19 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <v>781250</v>
       </c>
       <c r="C11" s="4">
-        <f>1404/100</f>
-        <v>14.04</v>
-      </c>
-      <c r="D11" s="2">
+        <f>1404*10</f>
+        <v>14040</v>
+      </c>
+      <c r="D11" s="6">
         <v>811.05</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="6">
         <f>75963/100</f>
         <v>759.63</v>
       </c>
@@ -3469,19 +5166,19 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>3906250</v>
       </c>
       <c r="C12" s="4">
-        <f>7816/100</f>
-        <v>78.16</v>
-      </c>
-      <c r="D12" s="2">
+        <f>7816*10</f>
+        <v>78160</v>
+      </c>
+      <c r="D12" s="4">
         <v>3450</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="4">
         <f>3916</f>
         <v>3916</v>
       </c>
@@ -3490,19 +5187,19 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <v>19531250</v>
       </c>
       <c r="C13" s="4">
-        <f>408890/1000</f>
-        <v>408.89</v>
-      </c>
-      <c r="D13" s="2">
+        <f>408890</f>
+        <v>408890</v>
+      </c>
+      <c r="D13" s="4">
         <v>17223</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <f>202*100</f>
         <v>20200</v>
       </c>
@@ -3511,19 +5208,19 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <v>97656250</v>
       </c>
       <c r="C14" s="4">
-        <f>220557/100</f>
-        <v>2205.5700000000002</v>
-      </c>
-      <c r="D14" s="2">
+        <f>220557*10</f>
+        <v>2205570</v>
+      </c>
+      <c r="D14" s="4">
         <v>78000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="4">
         <f>1061*100</f>
         <v>106100</v>
       </c>
@@ -3554,9 +5251,11 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -3565,97 +5264,240 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
+      <c r="B19" s="4">
+        <v>10</v>
+      </c>
+      <c r="C19" s="6">
+        <f>31/100</f>
+        <v>0.31</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6.1999999999999998E-3</v>
+      </c>
+      <c r="E19" s="6">
+        <f>124/10000</f>
+        <v>1.24E-2</v>
+      </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
+      <c r="B20" s="4">
+        <v>50</v>
+      </c>
+      <c r="C20" s="6">
+        <f>(B20/$B$19)*$C$19</f>
+        <v>1.55</v>
+      </c>
+      <c r="D20" s="6">
+        <f>(B20/$B$19)*$D$19</f>
+        <v>3.1E-2</v>
+      </c>
+      <c r="E20" s="6">
+        <f>(B20/$B$19)*$E$19</f>
+        <v>6.2E-2</v>
+      </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
+      <c r="B21" s="4">
+        <v>250</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" ref="C21:C29" si="0">(B21/$B$19)*$C$19</f>
+        <v>7.75</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:D29" si="1">(B21/$B$19)*$D$19</f>
+        <v>0.155</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:E29" si="2">(B21/$B$19)*$E$19</f>
+        <v>0.31</v>
+      </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="4">
+        <v>1250</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>38.75</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="1"/>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="2"/>
+        <v>1.55</v>
+      </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="4">
+        <v>6250</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>193.75</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>3.875</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="2"/>
+        <v>7.75</v>
+      </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="4">
+        <v>31250</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>968.75</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>19.375</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="2"/>
+        <v>38.75</v>
+      </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
+    <row r="25" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>156250</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>4843.75</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>96.875</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="2"/>
+        <v>193.75</v>
+      </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
+    <row r="26" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>781250</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>24218.75</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>484.375</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="2"/>
+        <v>968.75</v>
+      </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
+    <row r="27" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="4">
+        <v>3906250</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>121093.75</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>2421.875</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="2"/>
+        <v>4843.75</v>
+      </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
+    <row r="28" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="4">
+        <v>19531250</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>605468.75</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>12109.375</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="2"/>
+        <v>24218.75</v>
+      </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
+    <row r="29" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B29" s="4">
+        <v>97656250</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>3027343.75</v>
+      </c>
+      <c r="D29" s="6">
+        <f t="shared" si="1"/>
+        <v>60546.875</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="2"/>
+        <v>121093.75</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
